--- a/项目三温湿度采集/Wen.THproject/Wen.THproject/bin/Debug/Group/group.xlsx
+++ b/项目三温湿度采集/Wen.THproject/Wen.THproject/bin/Debug/Group/group.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\备份\C#项目\项目三温湿度采集\Wen.THproject\Wen.THproject\bin\Debug\Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEDB96D-D591-4B65-AAEB-EB293445750A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C3B139-AA90-46BF-97E5-2D4E0991C449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,12 +433,19 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
